--- a/results/I2_N10_T30_C300_0_P4_res.xlsx
+++ b/results/I2_N10_T30_C300_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.2671276712041</v>
+        <v>145.1089212663341</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.01399993896484375</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.0671278619396</v>
+        <v>37.36892126633407</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.19999980926445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.74</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.69770569366316</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.71579249669673</v>
+        <v>26.09699127290008</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.34885042281291</v>
+        <v>10.34885527085025</v>
       </c>
     </row>
     <row r="9">
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.76592070603971</v>
+        <v>24.14711948224307</v>
       </c>
     </row>
     <row r="12">
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.01643379329019</v>
+        <v>26.71671453559703</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.90090852477161</v>
+        <v>27.28210730097497</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.71671453559703</v>
+        <v>27.52855135814675</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000073</v>
+        <v>81.47500000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000073</v>
+        <v>80.68000000000072</v>
       </c>
     </row>
     <row r="14">
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000072</v>
+        <v>87.34500000000074</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>235.775</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>229.025</v>
+        <v>30.90499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>213.42</v>
+        <v>27.59499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>226.76</v>
+        <v>31.97499999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>221.56</v>
+        <v>33.99499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>72.62999999999948</v>
+        <v>216.7599999999987</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0549999999995</v>
+        <v>216.7249999999988</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>82.3199999999995</v>
+        <v>199.5399999999988</v>
       </c>
     </row>
     <row r="25">
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>83.95499999999947</v>
+        <v>218.1849999999988</v>
       </c>
     </row>
     <row r="26">
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.81499999999949</v>
+        <v>206.5849999999988</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>295.9199999999996</v>
+        <v>236.8400000000015</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>323.4999999999997</v>
+        <v>244.9650000000014</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>294.2649999999996</v>
+        <v>236.8400000000015</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>311.0999999999996</v>
+        <v>243.8100000000014</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>297.3649999999996</v>
+        <v>244.9650000000015</v>
       </c>
     </row>
     <row r="32">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>188.8550000000006</v>
+        <v>144.1299999999993</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>192.9200000000006</v>
+        <v>136.6699999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.5050000000006</v>
+        <v>117.2199999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>189.2700000000006</v>
+        <v>134.2299999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>182.1250000000006</v>
+        <v>125.7699999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>140.5549999999989</v>
+        <v>284.6849999999982</v>
       </c>
     </row>
     <row r="43">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2149999999989</v>
+        <v>295.8849999999982</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>142.1399999999989</v>
+        <v>259.3599999999982</v>
       </c>
     </row>
     <row r="45">
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>147.7249999999989</v>
+        <v>281.9549999999982</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>139.7449999999989</v>
+        <v>265.5149999999982</v>
       </c>
     </row>
     <row r="47">
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>226.0399999999994</v>
+        <v>166.9600000000012</v>
       </c>
     </row>
     <row r="48">
@@ -1674,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>247.1799999999994</v>
+        <v>168.6450000000012</v>
       </c>
     </row>
     <row r="49">
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>221.8549999999994</v>
+        <v>164.4300000000013</v>
       </c>
     </row>
     <row r="50">
@@ -1696,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>238.4549999999994</v>
+        <v>171.1650000000012</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>224.4749999999994</v>
+        <v>172.0750000000012</v>
       </c>
     </row>
     <row r="52">
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>260.990000000001</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="54">
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>252.9750000000009</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>235.775</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>229.025</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="59">
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>213.42</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>226.76</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>221.56</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>295.9199999999996</v>
+        <v>236.8400000000015</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>323.4999999999997</v>
+        <v>244.9650000000014</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>294.2649999999996</v>
+        <v>236.8400000000015</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>311.0999999999996</v>
+        <v>243.8100000000014</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>297.3649999999996</v>
+        <v>244.9650000000015</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>250.970000000001</v>
+        <v>284.6849999999982</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>260.990000000001</v>
+        <v>295.8849999999982</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>252.9750000000009</v>
+        <v>259.3599999999982</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>269.580000000001</v>
+        <v>281.9549999999982</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>250.575000000001</v>
+        <v>265.5149999999982</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>23.49999999999966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2062,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.09999990463257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="13">
@@ -2296,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2307,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="15">
@@ -2318,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.515</v>
       </c>
     </row>
     <row r="16">
@@ -2329,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="17">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28">
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6.475</v>
       </c>
     </row>
     <row r="29">
@@ -2472,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.165</v>
       </c>
     </row>
     <row r="30">
@@ -2483,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="31">
@@ -2494,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.005</v>
       </c>
     </row>
     <row r="32">
@@ -2728,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2753,28 +2753,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
